--- a/data files/Purchase Order/everest.xlsx
+++ b/data files/Purchase Order/everest.xlsx
@@ -8,29 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DCC953-0953-4331-AE7F-4C9872901767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C3A1D2-874B-464C-9AEF-2A350C26B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21744605-0A01-43E7-A759-F1EC86CBB2BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21744605-0A01-43E7-A759-F1EC86CBB2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="order form" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>To,</t>
   </si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>Orthocrepe   8cm</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Balaji Surgicals</t>
@@ -132,10 +120,7 @@
     <t>Bale</t>
   </si>
   <si>
-    <t>18/09/24</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -723,109 +708,109 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="16"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -833,159 +818,159 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
+      <c r="C16" s="7">
+        <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
+      <c r="C18" s="7">
+        <v>640</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
+      <c r="C19" s="7">
+        <v>480</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
+      <c r="C20" s="7">
+        <v>400</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
+      <c r="C21" s="7">
+        <v>60</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>15</v>
+      <c r="C23" s="7">
+        <v>240</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>15</v>
+      <c r="C24" s="7">
+        <v>400</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
+      <c r="C25" s="7">
+        <v>60</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="30"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
